--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ABC UNI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ABC-UNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="14352" windowHeight="7188" activeTab="2"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="14352" windowHeight="7188" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách học sinh thi" sheetId="2" r:id="rId1"/>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,6 +955,39 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -962,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="A2:A9 D14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1026,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1037,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,18 +1092,480 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
